--- a/biology/Zoologie/Cormoran_des_Bougainville/Cormoran_des_Bougainville.xlsx
+++ b/biology/Zoologie/Cormoran_des_Bougainville/Cormoran_des_Bougainville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucocarbo bougainvillii
-Le Cormoran de Bougainville (Leucocarbo bougainvillii)[1], est une espèce d'oiseaux de mer n'habitant que les côtes occidentales de l'Amérique du Sud et se trouvant jusqu'au Panama au Nord.
+Le Cormoran de Bougainville (Leucocarbo bougainvillii), est une espèce d'oiseaux de mer n'habitant que les côtes occidentales de l'Amérique du Sud et se trouvant jusqu'au Panama au Nord.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet animal a initialement été nommé Phalacrocorax bougainvillii par René Primevère Lesson en référence à Hyacinthe de Bougainville[2]. Actuellement l'IOC le classe sous le taxon Leucocarbo bougainvillii à la suite d'études de phylogénie moléculaire[3]. Cependant, certains ornithologues continuent à le classer dans le genre Phalacrocorax[4]. D'autres auteurs préconisent l'utilisation de la forme plurielle bougainvilliorum pour l'espèce, puisque l'oiseau aurait aussi été décrit par le père de Hyacinthe de Bougainville, Louis-Antoine de Bougainville[5],[6]. Sous cet épithète, le nom francisé de cet oiseau devient Cormoran des Bougainville, en référence aux deux marins.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet animal a initialement été nommé Phalacrocorax bougainvillii par René Primevère Lesson en référence à Hyacinthe de Bougainville. Actuellement l'IOC le classe sous le taxon Leucocarbo bougainvillii à la suite d'études de phylogénie moléculaire. Cependant, certains ornithologues continuent à le classer dans le genre Phalacrocorax. D'autres auteurs préconisent l'utilisation de la forme plurielle bougainvilliorum pour l'espèce, puisque l'oiseau aurait aussi été décrit par le père de Hyacinthe de Bougainville, Louis-Antoine de Bougainville,. Sous cet épithète, le nom francisé de cet oiseau devient Cormoran des Bougainville, en référence aux deux marins.
 Au Pérou, il est appelé guanay et il est représenté stylisé sur les fresques de Chan Chan.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>synonymes
 Phalacrocorax bougainvillii, Phalacrocorax bougainvilliorum (HBW, 2014)</t>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
